--- a/excel/activitycfg.xlsx
+++ b/excel/activitycfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>CfgId</t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>活动名</t>
+  </si>
+  <si>
+    <t>模板名,在代码中注册</t>
+  </si>
+  <si>
+    <t>刷新类型
+enum RefreshType</t>
+  </si>
+  <si>
+    <t>活动周期类型</t>
+  </si>
+  <si>
+    <t>时间类型
+enum TimeType</t>
+  </si>
+  <si>
+    <t>开始时间
+TimeType=1:时间戳
+TimeType=2:日期(格式20240219)</t>
+  </si>
+  <si>
+    <t>结束时间
+TimeType=1:时间戳
+TimeType=2:日期(格式20240219)</t>
+  </si>
+  <si>
+    <t>活动任务</t>
+  </si>
+  <si>
+    <t>活动礼包</t>
+  </si>
+  <si>
+    <t>K_V格式的动态属性</t>
+  </si>
+  <si>
+    <t>详情</t>
   </si>
   <si>
     <t>每日签到</t>
@@ -729,12 +771,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1269,19 +1314,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,47 +1412,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" ht="111" customHeight="1" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10001</v>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1418,22 +1475,22 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>20001</v>
+      <c r="J4" s="1">
+        <v>10001</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1450,22 +1507,22 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
+      <c r="I5" s="1">
+        <v>20001</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1482,22 +1539,22 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>40001</v>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1514,19 +1571,19 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
+      <c r="I7" s="1">
+        <v>40001</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1546,11 +1603,43 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/activitycfg.xlsx
+++ b/excel/activitycfg.xlsx
@@ -26,6 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">RefreshType_Day = 1; // 每日重置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Timestamp = 1; // 时间戳
+Date      = 2; // 日期(格式:20240219) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
@@ -98,7 +134,7 @@
 TimeType=2:日期(格式20240219)</t>
   </si>
   <si>
-    <t>活动任务</t>
+    <t>活动子任务</t>
   </si>
   <si>
     <t>活动礼包</t>
@@ -168,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +355,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1317,7 +1358,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1645,5 +1686,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/activitycfg.xlsx
+++ b/excel/activitycfg.xlsx
@@ -152,7 +152,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>签到拿奖励.每天一次</t>
+    <t>签到礼包.每天一次</t>
   </si>
   <si>
     <t>累充礼包</t>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1583,6 +1583,9 @@
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J6" s="1">
+        <v>30001</v>
+      </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>

--- a/excel/activitycfg.xlsx
+++ b/excel/activitycfg.xlsx
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
